--- a/src/main/resources/work-dir/departments.xlsx
+++ b/src/main/resources/work-dir/departments.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Поточна робота\Премії\премія_вересень\дані для загрузки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\prog.academy\final_project\medsalary\src\main\resources\work-dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8113EA8E-D73A-4718-BE8C-93EB0E79CDFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2430" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2430" windowWidth="29040" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="Відділення" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Відділення!$A$1:$E$116</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="261">
   <si>
     <t>departmentEleksId</t>
   </si>
@@ -111,9 +113,6 @@
     <t>Онкологічне відділення</t>
   </si>
   <si>
-    <t>3, 4, 17, 23, 38</t>
-  </si>
-  <si>
     <t>Відділення загальної терапії</t>
   </si>
   <si>
@@ -805,12 +804,24 @@
   </si>
   <si>
     <t>0137</t>
+  </si>
+  <si>
+    <t>3, 4, 5, 53, 60</t>
+  </si>
+  <si>
+    <t>3, 4, 17, 23, 38, 60</t>
+  </si>
+  <si>
+    <t>9, 47, 60</t>
+  </si>
+  <si>
+    <t>9, 60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -845,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -857,9 +868,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1071,11 +1088,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1102,15 +1120,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1122,12 +1140,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1139,12 +1157,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -1156,12 +1174,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -1173,12 +1191,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1195,7 +1213,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -1203,16 +1221,16 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -1224,12 +1242,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>96</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -1241,12 +1259,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
@@ -1258,12 +1276,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -1275,12 +1293,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -1292,12 +1310,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -1314,7 +1332,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
@@ -1322,161 +1340,161 @@
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E22" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1484,75 +1502,75 @@
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
@@ -1564,137 +1582,137 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>97</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>98</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>10</v>
@@ -1705,16 +1723,16 @@
         <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1722,183 +1740,183 @@
         <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E39" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>32</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E42" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>32</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>32</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>32</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>32</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>32</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E47" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>8</v>
@@ -1909,132 +1927,132 @@
         <v>32</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>32</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>81</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>32</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>32</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E52" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E55" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>86</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" s="3">
         <v>8</v>
@@ -2045,64 +2063,64 @@
         <v>32</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>81</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>28</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -2113,64 +2131,64 @@
         <v>32</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>32</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E61" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>32</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E62" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>81</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E63" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>81</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" s="3">
         <v>0</v>
@@ -2181,16 +2199,16 @@
         <v>32</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E65" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2198,353 +2216,353 @@
         <v>32</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>32</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>32</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>32</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>32</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E69" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>32</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E70" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>32</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E71" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>36</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E72" s="3">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>32</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E73" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>28</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E74" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>-1</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E75" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>28</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>32</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>32</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E77" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>32</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E78" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>32</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E79" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>81</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>32</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>32</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>32</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>32</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E83" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>32</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>32</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E85" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>32</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E86" s="3">
         <v>9</v>
@@ -2555,506 +2573,506 @@
         <v>32</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E87" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>32</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>32</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>81</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E90" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>81</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>81</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E92" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E93" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>32</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E94" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>32</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>32</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>32</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E97" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>32</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E98" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>32</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>32</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E99" s="4" t="s">
+      <c r="C100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>32</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>32</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="C101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>32</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E101" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>28</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>81</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>32</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>32</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E104" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>32</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>32</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>32</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E106" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>32</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>91</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E108" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>990</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E109" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>991</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E110" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>992</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E111" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>993</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E112" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>995</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E113" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>91</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E114" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>92</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E115" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>94</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E116" s="3">
         <v>0</v>
@@ -3945,6 +3963,23 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:E116">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0117"/>
+        <filter val="016801"/>
+        <filter val="017512"/>
+        <filter val="017513"/>
+        <filter val="017514"/>
+        <filter val="017519"/>
+        <filter val="017521"/>
+        <filter val="017535"/>
+        <filter val="017541"/>
+        <filter val="017545"/>
+        <filter val="017550"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/src/main/resources/work-dir/departments.xlsx
+++ b/src/main/resources/work-dir/departments.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\prog.academy\final_project\medsalary\src\main\resources\work-dir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\med_salary_project\med_salary\src\main\resources\work-dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB4EED1-8DF2-4401-8B13-727C0314463D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2430" windowWidth="29040" windowHeight="17790"/>
+    <workbookView xWindow="-28920" yWindow="-2430" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Відділення" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Відділення!$A$1:$E$116</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="263">
   <si>
     <t>departmentEleksId</t>
   </si>
@@ -816,17 +817,31 @@
   </si>
   <si>
     <t>9, 60</t>
+  </si>
+  <si>
+    <t>7, 4</t>
+  </si>
+  <si>
+    <t>4, 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -856,27 +871,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1088,12 +1106,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>84</v>
       </c>
@@ -1272,8 +1290,8 @@
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3">
-        <v>7</v>
+      <c r="E10" s="9" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1327,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>21</v>
       </c>
@@ -1392,7 +1410,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1497,7 +1515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>32</v>
       </c>
@@ -1718,7 +1736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -1735,7 +1753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -1922,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>32</v>
       </c>
@@ -2054,11 +2072,11 @@
       <c r="D56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>32</v>
       </c>
@@ -2126,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>32</v>
       </c>
@@ -2194,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>32</v>
       </c>
@@ -2211,7 +2229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>32</v>
       </c>
@@ -2551,7 +2569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>32</v>
       </c>
@@ -2568,7 +2586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>32</v>
       </c>
@@ -3963,20 +3981,10 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:E116">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:E116" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
       <filters>
-        <filter val="0117"/>
-        <filter val="016801"/>
-        <filter val="017512"/>
-        <filter val="017513"/>
-        <filter val="017514"/>
-        <filter val="017519"/>
-        <filter val="017521"/>
-        <filter val="017535"/>
-        <filter val="017541"/>
-        <filter val="017545"/>
-        <filter val="017550"/>
+        <filter val="Ендокринологічний кабінет"/>
       </filters>
     </filterColumn>
   </autoFilter>
